--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1422203.041768618</v>
+        <v>1495002.849024667</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16612500.99216497</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>278692.0725916859</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6099608.000425282</v>
+        <v>6659186.72853956</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>75.79903779981338</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -674,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>242.8243655528862</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -817,7 +819,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -829,7 +831,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>44.81258239195878</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>74.27355480885171</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>360.9100771515858</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>314.6618798646456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1063,16 +1065,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>84.01976803536526</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>34.06158462964364</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1139,13 +1141,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>59.18212589108334</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>36.56453789817022</v>
       </c>
     </row>
     <row r="9">
@@ -1303,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,10 +1344,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>131.996999652747</v>
+        <v>140.2850596529196</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1370,25 +1372,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.8153550780014</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1427,16 +1429,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>99.7931263925899</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1540,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170217</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1585,7 +1587,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>54.66258501925208</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1607,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.8153550780014</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1664,16 +1666,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.0056082904216</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1780,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,7 +1818,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1825,13 +1827,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>234.6314620976453</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>85.55329631630718</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -2002,22 +2004,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>165.6875758814574</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>141.3509401177971</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2099,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2239,16 +2241,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>67.84972440587259</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
@@ -2296,7 +2298,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2305,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>177.2323473033782</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2725,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>46.16917954999474</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2773,7 +2775,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>5.990622819018409</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3196,13 +3198,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>60.78001549303652</v>
       </c>
       <c r="G34" t="n">
-        <v>24.34318456170566</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3439,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3481,10 +3483,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>254.093120106908</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3661,22 +3663,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>144.1266108076344</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>98.3438513309559</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3752,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>325.6875051601876</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>112.1673564559257</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3995,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4037,13 +4039,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>136.2486587987184</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4144,16 +4146,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>84.01976803536532</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4192,7 +4194,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4201,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>209.93245371637</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1674.602188492498</v>
+        <v>991.498727323736</v>
       </c>
       <c r="C2" t="n">
-        <v>1236.459715675921</v>
+        <v>562.9170530610044</v>
       </c>
       <c r="D2" t="n">
-        <v>800.5499308503654</v>
+        <v>134.3353787982727</v>
       </c>
       <c r="E2" t="n">
-        <v>366.7751860086605</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>342.9481604582723</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862856</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862856</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>53.40121652862856</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>53.40121652862856</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.341725488303</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>2366.341725488303</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>2121.064588566196</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="W2" t="n">
-        <v>2120.249538017633</v>
+        <v>1437.146076848872</v>
       </c>
       <c r="X2" t="n">
-        <v>1701.107074596944</v>
+        <v>1422.044017468586</v>
       </c>
       <c r="Y2" t="n">
-        <v>1696.861354937001</v>
+        <v>1417.798297808644</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780554</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927107</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254061</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.821064952619</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>1357.443063079289</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K3" t="n">
-        <v>1357.443063079289</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L3" t="n">
-        <v>1357.443063079289</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M3" t="n">
-        <v>2018.283117621067</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N3" t="n">
-        <v>2018.283117621067</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O3" t="n">
-        <v>2018.283117621067</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>2129.321887799353</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>2670.060826431428</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.97268027238</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005574</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244454</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>959.897665623735</v>
+        <v>947.4105542393174</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>774.8488427225424</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>608.9708499240651</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>439.2128461748023</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>91.3608564523079</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>509.5707382202689</v>
       </c>
       <c r="M4" t="n">
-        <v>1292.433105213328</v>
+        <v>929.6236371651722</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596754</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567096</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>2670.060826431428</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>2510.819457729424</v>
+        <v>1630.500374046437</v>
       </c>
       <c r="T4" t="n">
-        <v>2264.94001130788</v>
+        <v>1384.620927624892</v>
       </c>
       <c r="U4" t="n">
-        <v>1986.507010560985</v>
+        <v>1384.620927624892</v>
       </c>
       <c r="V4" t="n">
-        <v>1699.551502431415</v>
+        <v>1384.620927624892</v>
       </c>
       <c r="W4" t="n">
-        <v>1624.527709695201</v>
+        <v>1384.620927624892</v>
       </c>
       <c r="X4" t="n">
-        <v>1379.135955028614</v>
+        <v>1139.229172958305</v>
       </c>
       <c r="Y4" t="n">
-        <v>1151.716284342722</v>
+        <v>1139.229172958305</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>576.9744364820456</v>
+        <v>500.4187672127678</v>
       </c>
       <c r="C5" t="n">
-        <v>542.872367705873</v>
+        <v>135.8631337263174</v>
       </c>
       <c r="D5" t="n">
-        <v>106.9625828803175</v>
+        <v>103.993752941166</v>
       </c>
       <c r="E5" t="n">
-        <v>77.22824207901677</v>
+        <v>74.25941213986525</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>1149.495958523325</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>1149.495958523325</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="M5" t="n">
-        <v>1149.495958523325</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="N5" t="n">
-        <v>1149.495958523325</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>1805.9664787622</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T5" t="n">
-        <v>2366.341725488303</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="U5" t="n">
-        <v>2107.11942280532</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="V5" t="n">
-        <v>1744.502472739146</v>
+        <v>2159.002379407678</v>
       </c>
       <c r="W5" t="n">
-        <v>1426.662190047585</v>
+        <v>1754.146924818712</v>
       </c>
       <c r="X5" t="n">
-        <v>1007.519726626896</v>
+        <v>1335.004461398022</v>
       </c>
       <c r="Y5" t="n">
-        <v>599.2336029265493</v>
+        <v>926.7183376976756</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>92.16803877326457</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="M6" t="n">
-        <v>714.2412710704069</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="N6" t="n">
-        <v>1375.081325612185</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="O6" t="n">
-        <v>1716.640978007438</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="P6" t="n">
-        <v>1716.640978007438</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1716.640978007438</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>900.7186013536157</v>
+        <v>593.0357356940362</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1568898368406</v>
+        <v>420.4740241772612</v>
       </c>
       <c r="D7" t="n">
-        <v>562.2788970383633</v>
+        <v>254.5960313787839</v>
       </c>
       <c r="E7" t="n">
-        <v>392.5208932891006</v>
+        <v>84.83802762952112</v>
       </c>
       <c r="F7" t="n">
-        <v>307.6524407281256</v>
+        <v>84.83802762952112</v>
       </c>
       <c r="G7" t="n">
-        <v>142.0611657539532</v>
+        <v>84.83802762952112</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>84.83802762952112</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933183</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>414.7393562644539</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>832.949238032415</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>1292.433105213328</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370972</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>2154.361157596754</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>2501.868051567096</v>
+        <v>2353.42655460952</v>
       </c>
       <c r="Q7" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>2648.6430051368</v>
+        <v>2340.96013947722</v>
       </c>
       <c r="T7" t="n">
-        <v>2402.763558715255</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>2124.33055796836</v>
+        <v>1816.647692308781</v>
       </c>
       <c r="V7" t="n">
-        <v>1837.375049838791</v>
+        <v>1529.692184179211</v>
       </c>
       <c r="W7" t="n">
-        <v>1565.348645425082</v>
+        <v>1257.665779765503</v>
       </c>
       <c r="X7" t="n">
-        <v>1319.956890758495</v>
+        <v>1012.274025098915</v>
       </c>
       <c r="Y7" t="n">
-        <v>1092.537220072603</v>
+        <v>784.8543544130234</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1415.517618276921</v>
+        <v>2190.910269352854</v>
       </c>
       <c r="C8" t="n">
-        <v>977.3751454603448</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D8" t="n">
-        <v>541.4653606347892</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E8" t="n">
-        <v>481.6854354922808</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
         <v>53.81800590148855</v>
@@ -4805,16 +4807,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4844,10 +4846,10 @@
         <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>2250.103312462176</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y8" t="n">
-        <v>1841.817188761829</v>
+        <v>2617.209839837762</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4883,25 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>277.7880908295411</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>277.7880908295411</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>277.7880908295411</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>878.2081529410129</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>705.6464414242379</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>539.7684486257606</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>370.0104448764978</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>193.303390838254</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4990,22 +4992,22 @@
         <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2489.401636434797</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>2101.820109555757</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1814.864601426188</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1542.838197012479</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1297.446442345892</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>1070.02677166</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>483.9938292475699</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>483.9938292475699</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>483.9938292475699</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>483.9938292475699</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>56.12639965677763</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677763</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677763</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096955</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1185.945282862319</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1185.945282862319</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1185.945282862319</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>1185.945282862319</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374607</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.66713212723</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085825</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.668109022718</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>2502.600881895757</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>2243.378579212774</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>2142.577441442481</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>1737.721986853514</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>1318.579523432825</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>910.2933997324778</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>484.0630267508877</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>484.0630267508877</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M12" t="n">
-        <v>484.0630267508877</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N12" t="n">
-        <v>484.0630267508877</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="O12" t="n">
-        <v>484.0630267508877</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P12" t="n">
-        <v>1178.627222503511</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q12" t="n">
-        <v>1719.366161135586</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>765.6202370743872</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C13" t="n">
-        <v>593.0585255576121</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
-        <v>427.1805327591348</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>257.4225290098721</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>80.71547497162831</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>56.12639965677763</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>56.12639965677763</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341474</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499119</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.0863407249</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695242</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559575</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R13" t="n">
-        <v>2672.786009559575</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S13" t="n">
-        <v>2513.544640857571</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="T13" t="n">
-        <v>2267.665194436026</v>
+        <v>2451.62318245741</v>
       </c>
       <c r="U13" t="n">
-        <v>1989.232193689132</v>
+        <v>2173.190181710515</v>
       </c>
       <c r="V13" t="n">
-        <v>1702.276685559562</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.250281145854</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X13" t="n">
-        <v>1184.858526479266</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y13" t="n">
-        <v>957.4388557933744</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>483.9938292475699</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>483.9938292475699</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>483.9938292475699</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>483.9938292475699</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>56.12639965677763</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>56.12639965677763</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677763</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>491.3810871096955</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="K14" t="n">
-        <v>1185.945282862319</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="L14" t="n">
-        <v>1565.257001127664</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M14" t="n">
-        <v>1565.257001127664</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N14" t="n">
-        <v>1565.257001127664</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>1565.257001127664</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>2259.821196880287</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>2806.319982838882</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.668109022718</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>2502.600881895757</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>2243.378579212774</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>1880.7616291466</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>1475.906174557633</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>1056.763711136944</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>910.2933997324777</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>56.12639965677763</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>56.12639965677763</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K15" t="n">
-        <v>484.0630267508877</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L15" t="n">
-        <v>484.0630267508877</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M15" t="n">
-        <v>484.0630267508877</v>
+        <v>414.500552094942</v>
       </c>
       <c r="N15" t="n">
-        <v>484.0630267508877</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O15" t="n">
-        <v>484.0630267508877</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P15" t="n">
-        <v>1178.627222503511</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q15" t="n">
-        <v>1719.366161135586</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>906.6224367337088</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C16" t="n">
-        <v>734.0607252169337</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D16" t="n">
-        <v>568.1827324184565</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E16" t="n">
-        <v>398.4247286691938</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>221.71767463095</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>56.12639965677763</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2513.544640857574</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.665194436029</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U16" t="n">
-        <v>1989.232193689134</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V16" t="n">
-        <v>1702.276685559565</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.250281145856</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X16" t="n">
-        <v>1184.858526479269</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.441055452696</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="17">
@@ -5516,19 +5518,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>775.0235620688178</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>1850.083528321677</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M17" t="n">
-        <v>3007.131363532228</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N17" t="n">
-        <v>4132.862346968675</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.042013538981</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P17" t="n">
         <v>5113.042013538981</v>
@@ -5598,16 +5600,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="N18" t="n">
-        <v>945.7774352703902</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O18" t="n">
-        <v>945.7774352703902</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
         <v>1765.500601749588</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3430.337866180711</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>3262.976678421664</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>3097.098685623186</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="E19" t="n">
-        <v>2927.340681873924</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F19" t="n">
-        <v>2750.63362783568</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>2585.042352861507</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>2585.042352861507</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>2496.382403636183</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>4932.38282354235</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>4932.38282354235</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>4653.949822795455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>4366.994314665886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>4094.967910252178</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>3849.57615558559</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>3622.156484899699</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
         <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,7 +5761,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5795,7 +5797,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>838.7339540459399</v>
+        <v>1077.292364523333</v>
       </c>
       <c r="C22" t="n">
-        <v>666.1722425291648</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>666.1722425291648</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>496.4142387799021</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
         <v>496.4142387799021</v>
@@ -5944,16 +5946,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y22" t="n">
-        <v>1030.552572764927</v>
+        <v>1269.11098324232</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>531.6733301892817</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3346.878440713113</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>3174.316729196338</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>3008.438736397861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>2838.680732648598</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>5094.802844496297</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>4848.923398074752</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>4570.490397327858</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>4283.534889198289</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>4011.50848478458</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>3766.116730117992</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>3538.697059432101</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3456.484824172876</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>3283.9231126561</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>3118.045119857623</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>2948.28711610836</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>2771.580062070117</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>4932.38282354235</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>4686.503377120805</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>4408.070376373911</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>4121.114868244342</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>4121.114868244342</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>3875.723113577754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>3648.303442891863</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>1463.16863798718</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C30" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D30" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E30" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F30" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G30" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H30" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>3879.214741978675</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R30" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S30" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T30" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U30" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V30" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W30" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X30" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y30" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3346.878440713113</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C31" t="n">
-        <v>3174.316729196338</v>
+        <v>926.148474301186</v>
       </c>
       <c r="D31" t="n">
-        <v>3008.438736397861</v>
+        <v>760.2704815027087</v>
       </c>
       <c r="E31" t="n">
-        <v>2838.680732648598</v>
+        <v>590.5124777534459</v>
       </c>
       <c r="F31" t="n">
-        <v>2661.973678610354</v>
+        <v>413.8054237152021</v>
       </c>
       <c r="G31" t="n">
-        <v>2496.382403636182</v>
+        <v>248.2141487410298</v>
       </c>
       <c r="H31" t="n">
-        <v>2496.382403636182</v>
+        <v>108.3119744314043</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>5094.802844496297</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>4848.923398074752</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>4570.490397327858</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>4283.534889198289</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W31" t="n">
-        <v>4011.50848478458</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X31" t="n">
-        <v>3766.116730117992</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y31" t="n">
-        <v>3538.697059432101</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>4481.15777025722</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L33" t="n">
-        <v>4481.15777025722</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M33" t="n">
-        <v>4481.15777025722</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N33" t="n">
-        <v>4481.15777025722</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O33" t="n">
-        <v>4481.15777025722</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P33" t="n">
-        <v>4481.15777025722</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3205.876241053795</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C34" t="n">
-        <v>3033.31452953702</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D34" t="n">
-        <v>2867.436536738543</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E34" t="n">
-        <v>2697.67853298928</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F34" t="n">
-        <v>2520.971478951036</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G34" t="n">
-        <v>2496.382403636182</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>4953.800644836978</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>4707.921198415434</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>4429.488197668539</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>4142.53268953897</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>3870.506285125261</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>3625.114530458674</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>3397.694859772782</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6923,64 +6925,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>1463.168637987181</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.168637987181</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7013,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>414.500552094942</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1757.289095728803</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7172,25 +7174,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>2758.053686176684</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176684</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q38" t="n">
         <v>5113.042013538981</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883914</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C40" t="n">
-        <v>811.7546776883914</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D40" t="n">
-        <v>666.1722425291648</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E40" t="n">
-        <v>496.4142387799021</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7357,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1791.820831731407</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1353.67835891483</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>917.7685740892747</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>483.9938292475699</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>56.12639965677763</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>56.12639965677763</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>56.12639965677763</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>56.12639965677763</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>56.12639965677763</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>56.12639965677763</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M41" t="n">
-        <v>750.6905954094008</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N41" t="n">
-        <v>1445.254791162024</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>1445.254791162024</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>2139.818986914647</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>2637.165918085825</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838882</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838882</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>2547.097680155898</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>2218.120402216315</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>2218.120402216315</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2218.120402216315</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2218.120402216315</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J42" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K42" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L42" t="n">
-        <v>56.12639965677763</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="M42" t="n">
-        <v>366.890248656548</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N42" t="n">
-        <v>1061.454444409171</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O42" t="n">
-        <v>1061.454444409171</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P42" t="n">
-        <v>1061.454444409171</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q42" t="n">
-        <v>1602.193383041247</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>822.7206744422584</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>822.7206744422584</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>656.8426816437811</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>487.0846778945184</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>310.3776238562746</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>144.7863488821023</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7863488821023</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2651.368188264949</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2492.126819562946</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2246.247373141401</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>1967.814372394506</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1680.858864264937</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1408.832459851228</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1163.440705184641</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>936.021034498749</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2046.855822212231</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>1608.713349395655</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1608.713349395655</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1174.93860455395</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>747.0711749631575</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G44" t="n">
-        <v>345.6733435864214</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H44" t="n">
-        <v>56.54318902963762</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>491.3810871096955</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>1185.945282862319</v>
+        <v>557.2627364873778</v>
       </c>
       <c r="L44" t="n">
-        <v>1396.102936374607</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="M44" t="n">
-        <v>1396.102936374607</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N44" t="n">
-        <v>1396.102936374607</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.102936374607</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P44" t="n">
-        <v>2090.66713212723</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085825</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>2806.319982838882</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>2806.319982838882</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>2547.097680155898</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>2184.480730089725</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>2046.855822212231</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2046.855822212231</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2046.855822212231</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1649.251966351366</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>1542.795505188008</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>1447.705216334561</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>1353.584801661515</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>1270.200963277676</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>1184.81587354386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>1143.080221360073</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>1169.14389452053</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>1493.702219486743</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>2148.408266112466</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>2148.408266112466</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>2148.408266112466</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.408266112466</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>2148.408266112466</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>2148.408266112466</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>2689.147204744542</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>2806.319982838882</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>2742.864545287265</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>2612.685901617866</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>2436.349354617835</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>2237.231836679834</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>2051.909082413028</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>1897.041646651908</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>1770.555867431129</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1046.524611043334</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C46" t="n">
-        <v>873.9628995265592</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D46" t="n">
-        <v>708.0849067280819</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E46" t="n">
-        <v>538.3269029788192</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F46" t="n">
-        <v>361.6198489405755</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="G46" t="n">
-        <v>196.0285739664031</v>
+        <v>275.7892420570794</v>
       </c>
       <c r="H46" t="n">
-        <v>56.12639965677763</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2492.126819562946</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T46" t="n">
-        <v>2246.247373141401</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U46" t="n">
-        <v>1967.814372394506</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V46" t="n">
-        <v>1967.814372394506</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W46" t="n">
-        <v>1695.787967980798</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X46" t="n">
-        <v>1450.39621331421</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y46" t="n">
-        <v>1238.343229762321</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,16 +7990,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="P3" t="n">
-        <v>112.1603739174598</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>57.99715944515107</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956003</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,7 +8218,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047205</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8389,7 +8391,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>204.0749767191082</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8453,19 +8455,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L8" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8529,19 +8531,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>200.3264657984394</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8690,22 +8692,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
-        <v>212.2804580932202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8769,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>432.2592192869799</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>350.8506558504741</v>
       </c>
       <c r="P12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>383.1431497629746</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>432.2592192869799</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -9179,7 +9181,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9246,19 +9248,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="N18" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9407,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9474,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9723,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,13 +9877,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
-        <v>1005.515419242839</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9890,13 +9892,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,10 +10199,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>433.7499898166684</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
-        <v>519.9105708963853</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10583,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10601,13 +10603,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>315.3936483072347</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,19 +10831,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>314.2706063049995</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097204</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097205</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>502.370637546644</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11142,25 +11144,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M42" t="n">
-        <v>313.9028777775458</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097204</v>
+        <v>459.5978749662608</v>
       </c>
       <c r="L44" t="n">
-        <v>212.2804580932202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.761048088411</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869773</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629688</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.238853011216</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>259.1976541729219</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627284</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>229.4233680290218</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884121</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>259.1976541729215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23704,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>34.6746782719261</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>5.148518520149935</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>22.86827275269542</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>102.9863699957347</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.91312667565458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>117.7661826744359</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>81.782726914053</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25084,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>114.1599680048248</v>
       </c>
       <c r="G34" t="n">
-        <v>139.592177662725</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>29.9928329413658</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>20.09260206285816</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>69.71657238081421</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>33.30327540532409</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>77.73307607587155</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25913,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>264.5582412443586</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>54.48338453116391</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>15.21302026266278</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>565875.8719275715</v>
+        <v>553404.3698699041</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>565875.8719275715</v>
+        <v>563972.9718893002</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>384470.702603283</v>
+        <v>580880.5104324688</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>384470.702603283</v>
+        <v>580880.5104324686</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>580880.5104324687</v>
+        <v>580880.5104324686</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>384470.702603283</v>
+        <v>580880.5104324687</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>384470.7026032831</v>
+        <v>580880.5104324687</v>
       </c>
     </row>
   </sheetData>
@@ -26314,19 +26316,19 @@
         <v>415514.1729150665</v>
       </c>
       <c r="C2" t="n">
-        <v>415514.1729150666</v>
+        <v>415514.1729150667</v>
       </c>
       <c r="D2" t="n">
-        <v>415514.1729150665</v>
+        <v>415514.1729150667</v>
       </c>
       <c r="E2" t="n">
-        <v>270253.5357583608</v>
+        <v>408314.6277064481</v>
       </c>
       <c r="F2" t="n">
-        <v>270253.5357583607</v>
+        <v>408314.627706448</v>
       </c>
       <c r="G2" t="n">
-        <v>408314.627706448</v>
+        <v>408314.6277064482</v>
       </c>
       <c r="H2" t="n">
         <v>408314.627706448</v>
@@ -26350,10 +26352,10 @@
         <v>408314.6277064481</v>
       </c>
       <c r="O2" t="n">
-        <v>270253.5357583608</v>
+        <v>408314.6277064481</v>
       </c>
       <c r="P2" t="n">
-        <v>270253.5357583608</v>
+        <v>408314.627706448</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501596</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998296</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045616</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877235</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622472</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340786</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156636.6412526738</v>
+        <v>199828.8262465156</v>
       </c>
       <c r="C4" t="n">
-        <v>156636.6412526738</v>
+        <v>163226.8987932459</v>
       </c>
       <c r="D4" t="n">
         <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>45008.01073416813</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="F4" t="n">
-        <v>45008.01073416814</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="G4" t="n">
-        <v>68000.69828933274</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="H4" t="n">
-        <v>68000.69828933277</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="I4" t="n">
         <v>68000.69828933281</v>
@@ -26442,22 +26444,22 @@
         <v>68000.69828933279</v>
       </c>
       <c r="K4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="L4" t="n">
         <v>68000.69828933279</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>68000.69828933281</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>68000.69828933282</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>68000.69828933281</v>
       </c>
-      <c r="O4" t="n">
-        <v>45008.0107341682</v>
-      </c>
       <c r="P4" t="n">
-        <v>45008.0107341682</v>
+        <v>68000.69828933279</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>71956.21380800255</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.063739151</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.063739151</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.063739151</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.063739151</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-39034.69148340983</v>
+        <v>14069.25787161868</v>
       </c>
       <c r="C6" t="n">
-        <v>184665.0071006351</v>
+        <v>113743.2924188023</v>
       </c>
       <c r="D6" t="n">
-        <v>184665.007100635</v>
+        <v>173137.4115506522</v>
       </c>
       <c r="E6" t="n">
-        <v>172418.4646845855</v>
+        <v>80240.58159027301</v>
       </c>
       <c r="F6" t="n">
-        <v>182589.4612850416</v>
+        <v>262595.6908113227</v>
       </c>
       <c r="G6" t="n">
-        <v>104536.2138652135</v>
+        <v>262595.6908113229</v>
       </c>
       <c r="H6" t="n">
         <v>262595.6908113227</v>
@@ -26543,25 +26545,25 @@
         <v>262595.6908113227</v>
       </c>
       <c r="J6" t="n">
-        <v>87944.34209361652</v>
+        <v>151581.2254663325</v>
       </c>
       <c r="K6" t="n">
-        <v>262595.6908113227</v>
+        <v>209549.8361725503</v>
       </c>
       <c r="L6" t="n">
-        <v>262595.6908113227</v>
+        <v>253203.3890847003</v>
       </c>
       <c r="M6" t="n">
-        <v>254106.6091079818</v>
+        <v>110395.519873335</v>
       </c>
       <c r="N6" t="n">
         <v>262595.6908113228</v>
       </c>
       <c r="O6" t="n">
-        <v>182589.4612850416</v>
+        <v>262595.6908113228</v>
       </c>
       <c r="P6" t="n">
-        <v>182589.4612850416</v>
+        <v>262595.6908113227</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>630.404832368463</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097204</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097204</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097204</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097204</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186348</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.680507675025</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.680507675025</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>353.6379595934744</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27396,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>116.1664150126255</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27537,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>112.8363726230245</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>195.0325855607197</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>72.85097093682509</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>86.14502017843142</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27783,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>90.92021546249607</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>53.71176510342777</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27859,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>370.2548715022044</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27916,10 +27918,10 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>367.6387245651729</v>
       </c>
     </row>
     <row r="9">
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,10 +28064,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>143.6516710866787</v>
+        <v>135.3636110865062</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28278,7 +28280,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-4.340002139993595e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28327,13 +28329,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-8.687078034203474e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-4.113950559524804e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28375,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-4.113950559524804e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28384,16 +28386,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-4.113950559524804e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-4.113950559524804e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-4.113950559524804e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28582,7 +28584,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.151023720780131e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28743,7 +28745,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-9.875322462708701e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28819,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.151079231931362e-12</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -34696,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,16 +34710,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="P3" t="n">
-        <v>112.1603739174598</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>57.99715944515107</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956003</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,7 +34938,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047205</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,7 +35102,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35109,7 +35111,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.017064616507</v>
+        <v>204.0749767191082</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,19 +35175,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L8" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35249,19 +35251,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>200.3264657984394</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35410,28 +35412,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
-        <v>212.2804580932202</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>432.2592192869799</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>350.8506558504741</v>
       </c>
       <c r="P12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645559</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165107</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821539</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>383.1431497629746</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>432.2592192869799</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,7 +35886,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35899,7 +35901,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="N18" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743907966</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,13 +36056,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36212,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
-        <v>1005.515419242839</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36610,13 +36612,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>433.7499898166684</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,10 +37165,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
-        <v>519.9105708963853</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37321,13 +37323,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>315.3936483072347</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37540,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>314.2706063049995</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097204</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097205</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>502.370637546644</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M42" t="n">
-        <v>313.9028777775458</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097204</v>
+        <v>459.5978749662608</v>
       </c>
       <c r="L44" t="n">
-        <v>212.2804580932202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1495002.849024667</v>
+        <v>1494477.666655634</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216497</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916859</v>
+        <v>278692.0725916857</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>75.79903779981338</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -676,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>188.2030277885075</v>
       </c>
     </row>
     <row r="3">
@@ -825,19 +825,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>60.69739848334577</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>44.81258239195878</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -898,7 +898,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>360.9100771515858</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -964,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>391.9068567923636</v>
       </c>
     </row>
     <row r="6">
@@ -1065,16 +1065,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>121.6880555375658</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>34.06158462964364</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1150,7 +1150,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>248.4931071670212</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>36.56453789817022</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
-        <v>140.2850596529196</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1372,10 +1372,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772997</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1384,10 +1384,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>82.8153550780014</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633445</v>
       </c>
     </row>
     <row r="12">
@@ -1536,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>56.63677140718728</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1578,16 +1578,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>54.66258501925208</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1612,7 +1612,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1785,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1827,10 +1827,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>234.6314620976453</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>66.96958968939217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2007,13 +2007,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>141.3509401177971</v>
+        <v>2.292363805515891</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2241,7 +2241,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>67.84972440587259</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2298,13 +2298,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>125.1716544454844</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2481,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2538,7 +2538,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>46.45303019605535</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2772,7 +2772,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>123.2901323038659</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>73.29899740799657</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>5.990622819018409</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3009,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3198,7 +3198,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>60.78001549303652</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3249,7 +3249,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>46.16917954999316</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3483,7 +3483,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>86.91406253606259</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3517,13 +3517,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>98.3438513309559</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>39.88277234055019</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3723,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>94.2187898436204</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3997,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>84.01976803536532</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>67.42894579208244</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>991.498727323736</v>
+        <v>443.0234284442651</v>
       </c>
       <c r="C2" t="n">
-        <v>562.9170530610044</v>
+        <v>408.9213596680925</v>
       </c>
       <c r="D2" t="n">
-        <v>134.3353787982727</v>
+        <v>377.0519788829411</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>347.3176380816403</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4333,19 +4333,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4366,16 +4366,16 @@
         <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>1437.961127397434</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W2" t="n">
-        <v>1437.146076848872</v>
+        <v>670.4887227422939</v>
       </c>
       <c r="X2" t="n">
-        <v>1422.044017468586</v>
+        <v>655.3866633620087</v>
       </c>
       <c r="Y2" t="n">
-        <v>1417.798297808644</v>
+        <v>465.2825948887688</v>
       </c>
     </row>
     <row r="3">
@@ -4406,25 +4406,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>453.9965675465116</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>453.9965675465116</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
-        <v>453.9965675465116</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>947.4105542393174</v>
+        <v>433.6938764353918</v>
       </c>
       <c r="C4" t="n">
-        <v>774.8488427225424</v>
+        <v>261.1321649186168</v>
       </c>
       <c r="D4" t="n">
-        <v>608.9708499240651</v>
+        <v>95.25417212013943</v>
       </c>
       <c r="E4" t="n">
-        <v>439.2128461748023</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>91.3608564523079</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>509.5707382202689</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>929.6236371651722</v>
+        <v>1109.321405990304</v>
       </c>
       <c r="N4" t="n">
-        <v>1349.676536110076</v>
+        <v>1109.321405990304</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4515,25 +4515,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1630.500374046437</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1384.620927624892</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U4" t="n">
-        <v>1384.620927624892</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V4" t="n">
-        <v>1384.620927624892</v>
+        <v>1142.930654234675</v>
       </c>
       <c r="W4" t="n">
-        <v>1384.620927624892</v>
+        <v>870.9042498209665</v>
       </c>
       <c r="X4" t="n">
-        <v>1139.229172958305</v>
+        <v>625.5124951543789</v>
       </c>
       <c r="Y4" t="n">
-        <v>1139.229172958305</v>
+        <v>625.5124951543789</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>500.4187672127678</v>
+        <v>169.9652025024901</v>
       </c>
       <c r="C5" t="n">
         <v>135.8631337263174</v>
@@ -4570,16 +4570,16 @@
         <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>1109.787858087173</v>
+        <v>485.687074042395</v>
       </c>
       <c r="L5" t="n">
-        <v>1109.787858087173</v>
+        <v>485.687074042395</v>
       </c>
       <c r="M5" t="n">
-        <v>1109.787858087173</v>
+        <v>485.687074042395</v>
       </c>
       <c r="N5" t="n">
-        <v>1109.787858087173</v>
+        <v>557.7649106726439</v>
       </c>
       <c r="O5" t="n">
         <v>1181.865694717422</v>
@@ -4594,25 +4594,25 @@
         <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473852</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="T5" t="n">
-        <v>2521.619329473852</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="U5" t="n">
-        <v>2521.619329473852</v>
+        <v>2178.745152974706</v>
       </c>
       <c r="V5" t="n">
-        <v>2159.002379407678</v>
+        <v>1816.128202908532</v>
       </c>
       <c r="W5" t="n">
-        <v>1754.146924818712</v>
+        <v>1411.272748319566</v>
       </c>
       <c r="X5" t="n">
-        <v>1335.004461398022</v>
+        <v>992.1302848988763</v>
       </c>
       <c r="Y5" t="n">
-        <v>926.7183376976756</v>
+        <v>596.2647729873979</v>
       </c>
     </row>
     <row r="6">
@@ -4661,7 +4661,7 @@
         <v>1025.155168760925</v>
       </c>
       <c r="O6" t="n">
-        <v>1025.155168760925</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
         <v>1055.760431341871</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>593.0357356940362</v>
+        <v>998.1565508175845</v>
       </c>
       <c r="C7" t="n">
-        <v>420.4740241772612</v>
+        <v>825.5948393008094</v>
       </c>
       <c r="D7" t="n">
-        <v>254.5960313787839</v>
+        <v>659.7168465023321</v>
       </c>
       <c r="E7" t="n">
-        <v>84.83802762952112</v>
+        <v>489.9588427530694</v>
       </c>
       <c r="F7" t="n">
-        <v>84.83802762952112</v>
+        <v>313.2517887148256</v>
       </c>
       <c r="G7" t="n">
-        <v>84.83802762952112</v>
+        <v>190.3345608991025</v>
       </c>
       <c r="H7" t="n">
-        <v>84.83802762952112</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I7" t="n">
         <v>50.43238658947704</v>
@@ -4728,19 +4728,19 @@
         <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253025</v>
+        <v>266.2978593068779</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932636</v>
+        <v>684.5077410748389</v>
       </c>
       <c r="M7" t="n">
-        <v>1289.464275274177</v>
+        <v>1143.991608255752</v>
       </c>
       <c r="N7" t="n">
-        <v>1731.723078431821</v>
+        <v>1586.250411413396</v>
       </c>
       <c r="O7" t="n">
-        <v>2151.392327657602</v>
+        <v>2005.919660639178</v>
       </c>
       <c r="P7" t="n">
         <v>2353.42655460952</v>
@@ -4752,25 +4752,25 @@
         <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.96013947722</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055676</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="U7" t="n">
-        <v>1816.647692308781</v>
+        <v>2221.768507432329</v>
       </c>
       <c r="V7" t="n">
-        <v>1529.692184179211</v>
+        <v>1934.812999302759</v>
       </c>
       <c r="W7" t="n">
-        <v>1257.665779765503</v>
+        <v>1662.786594889051</v>
       </c>
       <c r="X7" t="n">
-        <v>1012.274025098915</v>
+        <v>1417.394840222463</v>
       </c>
       <c r="Y7" t="n">
-        <v>784.8543544130234</v>
+        <v>1189.975169536572</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2190.910269352854</v>
+        <v>1671.95961582883</v>
       </c>
       <c r="C8" t="n">
-        <v>1752.767796536277</v>
+        <v>1637.857547052657</v>
       </c>
       <c r="D8" t="n">
-        <v>1316.858011710722</v>
+        <v>1201.947762227101</v>
       </c>
       <c r="E8" t="n">
-        <v>883.0832668690169</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148855</v>
@@ -4804,52 +4804,52 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W8" t="n">
-        <v>2669.245775882865</v>
+        <v>1713.566561313561</v>
       </c>
       <c r="X8" t="n">
-        <v>2654.14371650258</v>
+        <v>1698.464501933276</v>
       </c>
       <c r="Y8" t="n">
-        <v>2617.209839837762</v>
+        <v>1694.218782273333</v>
       </c>
     </row>
     <row r="9">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>878.2081529410129</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>705.6464414242379</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>539.7684486257606</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>370.0104448764978</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>193.303390838254</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>2101.820109555757</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1814.864601426188</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1542.838197012479</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1297.446442345892</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1070.02677166</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
         <v>1654.847790009657</v>
@@ -5086,7 +5086,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
         <v>1648.327823655249</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1181.319000882661</v>
+        <v>1068.769857140658</v>
       </c>
       <c r="C13" t="n">
-        <v>1008.757289365886</v>
+        <v>896.2081456238831</v>
       </c>
       <c r="D13" t="n">
-        <v>842.8792965674086</v>
+        <v>730.3301528254058</v>
       </c>
       <c r="E13" t="n">
         <v>673.1212928181459</v>
@@ -5217,34 +5217,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878955</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2697.502628878955</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2451.62318245741</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2173.190181710515</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V13" t="n">
-        <v>2117.975449367836</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W13" t="n">
-        <v>1845.949044954127</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X13" t="n">
-        <v>1600.55729028754</v>
+        <v>1488.008146545537</v>
       </c>
       <c r="Y13" t="n">
-        <v>1373.137619601648</v>
+        <v>1260.588475859645</v>
       </c>
     </row>
     <row r="14">
@@ -5278,16 +5278,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>306.1208027766299</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>306.1208027766299</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>306.1208027766299</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
         <v>2588.899621423628</v>
@@ -5305,22 +5305,22 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
         <v>2955.199618136696</v>
@@ -5357,25 +5357,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>414.500552094942</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092.659051657336</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5466,22 +5466,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2559.679081471576</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2281.246080724681</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1994.290572595111</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1757.289095728803</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1511.897341062215</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y16" t="n">
-        <v>1284.477670376323</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5548,19 +5548,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883914</v>
+        <v>1017.756527079654</v>
       </c>
       <c r="C19" t="n">
-        <v>639.1929661716164</v>
+        <v>845.1948155628792</v>
       </c>
       <c r="D19" t="n">
-        <v>496.4142387799021</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>496.4142387799021</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
         <v>496.4142387799021</v>
@@ -5685,40 +5685,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113122</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338904</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.50262887895</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755402</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008507</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878937</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.966900465229</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798641</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407379</v>
+        <v>1209.575145798641</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5797,7 +5797,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1077.292364523333</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
         <v>1008.757289365886</v>
@@ -5946,16 +5946,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>2013.948813008508</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1741.922408594799</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="X22" t="n">
-        <v>1496.530653928212</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>1269.11098324232</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6071,19 +6071,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1680.07105215565</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1434.679297489062</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="26">
@@ -6226,16 +6226,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>306.120802776629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6408,16 +6408,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
         <v>1889.413325832886</v>
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3449.802252060173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3449.802252060173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>3449.802252060173</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>3449.802252060173</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>3879.214741978675</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>5113.042013538981</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.710185817961</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C31" t="n">
-        <v>926.148474301186</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D31" t="n">
-        <v>760.2704815027087</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E31" t="n">
-        <v>590.5124777534459</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F31" t="n">
-        <v>413.8054237152021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G31" t="n">
-        <v>248.2141487410298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H31" t="n">
-        <v>108.3119744314043</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V31" t="n">
-        <v>2035.366634303136</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W31" t="n">
-        <v>1763.340229889428</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X31" t="n">
-        <v>1517.94847522284</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y31" t="n">
-        <v>1290.528804536948</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="32">
@@ -6776,25 +6776,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883914</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C34" t="n">
-        <v>639.1929661716164</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D34" t="n">
-        <v>473.3149733731391</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E34" t="n">
-        <v>303.5569696238763</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F34" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.99296709327</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7013,28 +7013,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1926.156830648849</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1654.13042623514</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="38">
@@ -7165,37 +7165,37 @@
         <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>970.9960463903949</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>798.4343348736198</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>632.5563420751425</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>533.2191185085204</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>356.5120644702766</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7338,46 +7338,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745698</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2657.217000252137</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752034</v>
+        <v>2411.337553830592</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005139</v>
+        <v>2132.904553083697</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.65249487557</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="W40" t="n">
-        <v>1635.626090461861</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.234335795274</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>1162.814665109382</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7399,13 +7399,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7417,46 +7417,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2528.913654892426</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
         <v>1765.500601749588</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>970.996046390399</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736239</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751466</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258839</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>286.0912842876401</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7581,40 +7581,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752038</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005143</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.652494875574</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461865</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795278</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109386</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2627364873778</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>949.5782250957668</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C46" t="n">
-        <v>777.0165135789917</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>611.1385207805145</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>441.3805170312517</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>441.3805170312517</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>275.7892420570794</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
         <v>190.9207894961043</v>
@@ -7830,28 +7830,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.502628878951</v>
+        <v>2650.81040391895</v>
       </c>
       <c r="T46" t="n">
-        <v>2451.623182457406</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="U46" t="n">
-        <v>2173.190181710511</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V46" t="n">
-        <v>1886.234673580942</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W46" t="n">
-        <v>1614.208269167233</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X46" t="n">
-        <v>1368.816514500646</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y46" t="n">
-        <v>1141.396843814754</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>288.7962490401609</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>57.99715944515107</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>298.8178948332412</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8227,10 +8227,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>72.80589558611007</v>
       </c>
       <c r="O5" t="n">
-        <v>72.80589558611018</v>
+        <v>630.404832368463</v>
       </c>
       <c r="P5" t="n">
         <v>630.4048323684628</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="P6" t="n">
-        <v>30.91440664741958</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8376,7 +8376,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>130.5917045986979</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8391,7 +8391,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>204.0749767191082</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8464,19 +8464,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8765,31 +8765,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>350.8506558504741</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>205.9191540463134</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9005,7 +9005,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,19 +9014,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10120,22 +10120,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166684</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>187.4796750234296</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10831,22 +10831,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,13 +11065,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>60.59188538505123</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>459.5978749662608</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -11308,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>111.4236523045828</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>229.4233680290218</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>34.6746782719261</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>175.9682474305295</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>22.86827275269542</v>
+        <v>161.9268490649766</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>102.9863699957347</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>144.134485924087</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>222.853110173516</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>90.92021546249596</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>81.782726914053</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>114.1599680048248</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>223.1369608195782</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>197.1718905122112</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>69.71657238081421</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>117.7661826744331</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>69.71657238081021</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>54.48338453116391</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>90.22000922290086</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>580880.5104324686</v>
+        <v>580880.5104324687</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>580880.5104324686</v>
+        <v>580880.5104324687</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>580880.5104324687</v>
+        <v>580880.5104324688</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>580880.5104324687</v>
+        <v>580880.5104324688</v>
       </c>
     </row>
     <row r="16">
@@ -26316,19 +26316,19 @@
         <v>415514.1729150665</v>
       </c>
       <c r="C2" t="n">
-        <v>415514.1729150667</v>
+        <v>415514.1729150666</v>
       </c>
       <c r="D2" t="n">
-        <v>415514.1729150667</v>
+        <v>415514.1729150665</v>
       </c>
       <c r="E2" t="n">
-        <v>408314.6277064481</v>
+        <v>408314.6277064479</v>
       </c>
       <c r="F2" t="n">
+        <v>408314.6277064479</v>
+      </c>
+      <c r="G2" t="n">
         <v>408314.627706448</v>
-      </c>
-      <c r="G2" t="n">
-        <v>408314.6277064482</v>
       </c>
       <c r="H2" t="n">
         <v>408314.627706448</v>
@@ -26349,10 +26349,10 @@
         <v>408314.627706448</v>
       </c>
       <c r="N2" t="n">
-        <v>408314.6277064481</v>
+        <v>408314.627706448</v>
       </c>
       <c r="O2" t="n">
-        <v>408314.6277064481</v>
+        <v>408314.627706448</v>
       </c>
       <c r="P2" t="n">
         <v>408314.627706448</v>
@@ -26426,22 +26426,22 @@
         <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>68000.69828933282</v>
+        <v>68000.69828933274</v>
       </c>
       <c r="F4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933274</v>
       </c>
       <c r="G4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933274</v>
       </c>
       <c r="H4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933277</v>
       </c>
       <c r="I4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="J4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
         <v>68000.69828933281</v>
@@ -26453,13 +26453,13 @@
         <v>68000.69828933281</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933282</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="O4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="P4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>14069.25787161868</v>
       </c>
       <c r="C6" t="n">
-        <v>113743.2924188023</v>
+        <v>113743.2924188022</v>
       </c>
       <c r="D6" t="n">
-        <v>173137.4115506522</v>
+        <v>173137.411550652</v>
       </c>
       <c r="E6" t="n">
-        <v>80240.58159027301</v>
+        <v>80217.35725089026</v>
       </c>
       <c r="F6" t="n">
-        <v>262595.6908113227</v>
+        <v>262572.46647194</v>
       </c>
       <c r="G6" t="n">
-        <v>262595.6908113229</v>
+        <v>262572.46647194</v>
       </c>
       <c r="H6" t="n">
-        <v>262595.6908113227</v>
+        <v>262572.4664719401</v>
       </c>
       <c r="I6" t="n">
-        <v>262595.6908113227</v>
+        <v>262572.46647194</v>
       </c>
       <c r="J6" t="n">
-        <v>151581.2254663325</v>
+        <v>151558.0011269499</v>
       </c>
       <c r="K6" t="n">
-        <v>209549.8361725503</v>
+        <v>209526.6118331677</v>
       </c>
       <c r="L6" t="n">
-        <v>253203.3890847003</v>
+        <v>253180.1647453176</v>
       </c>
       <c r="M6" t="n">
-        <v>110395.519873335</v>
+        <v>110372.2955339524</v>
       </c>
       <c r="N6" t="n">
-        <v>262595.6908113228</v>
+        <v>262572.46647194</v>
       </c>
       <c r="O6" t="n">
-        <v>262595.6908113228</v>
+        <v>262572.46647194</v>
       </c>
       <c r="P6" t="n">
-        <v>262595.6908113227</v>
+        <v>262572.46647194</v>
       </c>
     </row>
   </sheetData>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>353.6379595934744</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>216.0002346748356</v>
       </c>
     </row>
     <row r="3">
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>107.3630252284243</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>112.8363726230245</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,10 +27596,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>72.85097093682509</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>12.29640567097954</v>
       </c>
     </row>
     <row r="6">
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>42.24730668686477</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>53.71176510342777</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>152.3137928760558</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>367.6387245651729</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
-        <v>135.3636110865062</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28092,22 +28092,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-4.672635203410889e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-4.672635203410889e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-4.672635203410889e-14</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-4.672635203410889e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-4.672635203410889e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-4.672635203410889e-14</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-1.365160857921151e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28326,13 +28326,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-4.672635203410889e-14</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-4.672635203410889e-14</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-1.552066266057587e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28757,7 +28757,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-1.687024466483654e-12</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30410,7 +30410,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30459,7 +30459,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30653,7 +30653,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>288.7962490401609</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>57.99715944515107</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>298.8178948332412</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34947,10 +34947,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>72.80589558611007</v>
       </c>
       <c r="O5" t="n">
-        <v>72.80589558611018</v>
+        <v>630.404832368463</v>
       </c>
       <c r="P5" t="n">
         <v>630.4048323684628</v>
@@ -35029,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="P6" t="n">
-        <v>30.91440664741958</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35096,22 +35096,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>130.5917045986979</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>204.0749767191082</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35184,19 +35184,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>350.8506558504741</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35585,7 +35585,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165107</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821539</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>205.9191540463134</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35725,7 +35725,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36053,10 +36053,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>446.726063795599</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36214,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166684</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>187.4796750234296</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37165,7 +37165,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37706,16 +37706,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080452</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37785,13 +37785,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>60.59188538505123</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37949,7 +37949,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956047</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512943</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>459.5978749662608</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38028,7 +38028,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38040,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
